--- a/data/temps/Growth.xlsx
+++ b/data/temps/Growth.xlsx
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1666666666666667</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
